--- a/overview radar products KNMI.xlsx
+++ b/overview radar products KNMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/claudia_brauer_wur_nl/Documents/data/KNMI/readme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="682" documentId="8_{62025138-C7BA-4EDC-A8C0-9360952CA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664FA124-F5DE-4456-ACAA-668DFF7925C3}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="8_{62025138-C7BA-4EDC-A8C0-9360952CA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E10CB158-447B-40ED-8F05-C1A9879E9EA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F24918CE-B8E6-4D55-8923-0828DA270BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F24918CE-B8E6-4D55-8923-0828DA270BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -430,36 +430,6 @@
     <t>6 GB per year</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">First choice for analyses after 2018.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Product much improved since Feb 2023. Before Feb 2023 sometimes RAC better.
-In 2024 file size will become smaller.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">First choice for analyses (starting) before 2018.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Also available as NetCDF (different link / dataset name).
-Download possible without API (click Preview and download zip file).</t>
-    </r>
-  </si>
-  <si>
     <t>https://dataplatform.knmi.nl/dataset/preview/nl-rdr-data-rtcor-5m-tar-1-0</t>
   </si>
   <si>
@@ -510,6 +480,36 @@
   </si>
   <si>
     <t>Clipped for NL. For 3 scenarios (high, medium, low emission), 2 variants (wet, dry) and 3 horizons (2050, 2100, 2150).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First choice for analyses after 2023. For 2018-2022 it's not known whether RAC or IRC-RF is better.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Product much improved since Feb 2023. Before Feb 2023 sometimes RAC better (IRC had sometimes technical issues and no cloud mask from satellite images (to remove non-meteorological echoes) applied, while the MFBS from RAC did have the cloud mask).
+In 2024 file size will become smaller.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First choice for analyses (starting) before 2018. For 2018-2022 it's not known whether RAC or IRC-RF is better.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Also available as NetCDF (different link / dataset name).
+Download possible without API (click Preview and download zip file).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1044,9 +1044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA806C38-FA80-4E1E-B461-7753D1A2EBDB}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
     <col min="11" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="82" style="2" customWidth="1"/>
+    <col min="14" max="14" width="96.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="67.7109375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1124,7 +1124,7 @@
         <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>20</v>
@@ -1151,7 +1151,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O3" s="8"/>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>109</v>
       </c>
@@ -1232,11 +1232,11 @@
         <v>113</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>49</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>115</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O6" s="9"/>
     </row>
@@ -1547,7 +1547,7 @@
         <v>96</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O13" s="9"/>
     </row>
@@ -1822,20 +1822,20 @@
     </row>
     <row r="22" spans="2:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>103</v>
@@ -1853,13 +1853,13 @@
         <v>103</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">

--- a/overview radar products KNMI.xlsx
+++ b/overview radar products KNMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/claudia_brauer_wur_nl/Documents/data/KNMI/readme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="8_{62025138-C7BA-4EDC-A8C0-9360952CA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E10CB158-447B-40ED-8F05-C1A9879E9EA3}"/>
+  <xr:revisionPtr revIDLastSave="709" documentId="8_{62025138-C7BA-4EDC-A8C0-9360952CA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B98C23C-2BB1-42E9-A214-52BC17809305}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F24918CE-B8E6-4D55-8923-0828DA270BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F24918CE-B8E6-4D55-8923-0828DA270BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -483,7 +483,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">First choice for analyses after 2023. For 2018-2022 it's not known whether RAC or IRC-RF is better.
+      <t xml:space="preserve">First choice for analyses after February 2023. For 2018 - Feb 2023 RAC is probably better than IRC-RF. After Feb 2023, it's not known whether RAC or IRC-RF is better.
 </t>
     </r>
     <r>
@@ -492,13 +492,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Product much improved since Feb 2023. Before Feb 2023 sometimes RAC better (IRC had sometimes technical issues and no cloud mask from satellite images (to remove non-meteorological echoes) applied, while the MFBS from RAC did have the cloud mask).
+      <t>Product much improved since Feb 2023, but some issues remain for specific events. Before Feb 2023 sometimes RAC better (IRC had sometimes technical issues and no cloud mask from satellite images (to remove non-meteorological echoes) applied, while the MFBS from RAC did have the cloud mask).
 In 2024 file size will become smaller.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">First choice for analyses (starting) before 2018. For 2018-2022 it's not known whether RAC or IRC-RF is better.
+      <t xml:space="preserve">First choice for analyses (starting) before 2018. For 2018 - Feb 2022 RAC is probably better than IRC-RF. After Feb 2023, it's not known whether RAC or IRC-RF is better.
 </t>
     </r>
     <r>
@@ -510,6 +510,12 @@
       <t>Also available as NetCDF (different link / dataset name).
 Download possible without API (click Preview and download zip file).</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> early 1998</t>
+  </si>
+  <si>
+    <t>rad_nl21_rac_mfbs_5min</t>
   </si>
 </sst>
 </file>
@@ -746,9 +752,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -786,7 +792,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -892,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1034,7 +1040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1044,9 +1050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA806C38-FA80-4E1E-B461-7753D1A2EBDB}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1242,7 @@
       </c>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="51" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>31</v>
@@ -1375,8 +1381,8 @@
       <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="13">
-        <v>39447</v>
+      <c r="H9" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>68</v>
@@ -1414,8 +1420,8 @@
       <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="13">
-        <v>39448</v>
+      <c r="H10" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>68</v>

--- a/overview radar products KNMI.xlsx
+++ b/overview radar products KNMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/claudia_brauer_wur_nl/Documents/data/KNMI/readme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="709" documentId="8_{62025138-C7BA-4EDC-A8C0-9360952CA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B98C23C-2BB1-42E9-A214-52BC17809305}"/>
+  <xr:revisionPtr revIDLastSave="757" documentId="8_{62025138-C7BA-4EDC-A8C0-9360952CA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A813CF-A3F3-4B64-8236-38691516A2F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F24918CE-B8E6-4D55-8923-0828DA270BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F24918CE-B8E6-4D55-8923-0828DA270BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -95,13 +95,7 @@
     <t>https://dataplatform.knmi.nl/dataset/radar-corr-accum-24h-1-0</t>
   </si>
   <si>
-    <t>Pysteps nowcast</t>
-  </si>
-  <si>
     <t>5 min</t>
-  </si>
-  <si>
-    <t>https://dataplatform.knmi.nl/dataset/precipitation-nl-ensemble-nowcast-5min-1-0</t>
   </si>
   <si>
     <t>Start series</t>
@@ -304,25 +298,12 @@
     <t>https://dataplatform.knmi.nl/dataset/rad-opera-24h-rainfall-accumulation-euradclim-1-0</t>
   </si>
   <si>
-    <t xml:space="preserve">	precipitation_NL_ensemble_nowcast_5min</t>
-  </si>
-  <si>
     <t>Nowcast based on radars NL + BE + DE
 corr: gauges AWS</t>
   </si>
   <si>
-    <t>Blended nowcast</t>
-  </si>
-  <si>
-    <t>Nowcast based on radars NL + BE + DE
-corr: gauges AWS  &amp; HARMONIE</t>
-  </si>
-  <si>
     <t>Nowcast with 2 h lead time and 20 members.
 Currently working on making it operational with new pysteps code (hopefully available summer 2024).</t>
-  </si>
-  <si>
-    <t>Under development (hopefully available summer 2024),</t>
   </si>
   <si>
     <t>https://dataplatform.knmi.nl/dataset/ev24-2</t>
@@ -516,6 +497,46 @@
   </si>
   <si>
     <t>rad_nl21_rac_mfbs_5min</t>
+  </si>
+  <si>
+    <t>https://dataplatform.knmi.nl/dataset/seamless-precipitation-ensemble-forecast-members-1-0</t>
+  </si>
+  <si>
+    <t>https://dataplatform.knmi.nl/dataset/seamless-precipitation-ensemble-forecast-probabilities-1-0</t>
+  </si>
+  <si>
+    <t>KNMI_PYSTEPS_BLEND_PROB</t>
+  </si>
+  <si>
+    <t>KNMI_PYSTEPS_BLEND_ENS_202507090805</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/preprints/essd-2025-160/</t>
+  </si>
+  <si>
+    <t>https://dataplatform.knmi.nl/dataset/radar-forecast-2-0</t>
+  </si>
+  <si>
+    <t>Nowcast</t>
+  </si>
+  <si>
+    <t>RAD_NL25_RAC_FM</t>
+  </si>
+  <si>
+    <t>Seamless forecast ensemble</t>
+  </si>
+  <si>
+    <t>Seamless forecast exceedance probabilties</t>
+  </si>
+  <si>
+    <t>Blend of radar nowcast and NWP. Based on radars NL + BE + DE
+corr: gauges AWS  &amp; HARMONIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disclaimer: I made this overview myself; it is not an official overview from KNMI. Some information may also be outdated. Please double-check yourself. </t>
   </si>
 </sst>
 </file>
@@ -642,15 +663,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -731,6 +749,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,6 +773,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,17 +1076,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA806C38-FA80-4E1E-B461-7753D1A2EBDB}">
-  <dimension ref="B2:P26"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
@@ -1069,881 +1097,943 @@
     <col min="10" max="10" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="25" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="24" customWidth="1"/>
     <col min="14" max="14" width="96.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="67.7109375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="3" spans="2:15" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43441</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="M4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="10">
+        <v>43441</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="10">
+        <v>43441</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="12">
+        <v>39447</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="12">
+        <v>39447</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="12">
+        <v>39447</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="12">
+        <v>39447</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="10">
+        <v>39448</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="10">
+        <v>39448</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="10">
+        <v>41275</v>
+      </c>
+      <c r="I15" s="10">
+        <v>44196</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="10">
+        <v>41275</v>
+      </c>
+      <c r="I16" s="10">
+        <v>44196</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10">
+        <v>45505</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="10">
+        <v>45717</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="10">
+        <v>45717</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10">
+        <v>18264</v>
+      </c>
+      <c r="I22" s="10">
+        <v>45107</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="12">
+        <v>23743</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="L23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="C24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="11">
-        <v>43441</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="25" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="11">
-        <v>43441</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="2:15" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="11">
-        <v>43441</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="2:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="13">
-        <v>39447</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="13">
-        <v>39447</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="13">
-        <v>39447</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="13">
-        <v>39447</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="11">
-        <v>39448</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="11">
-        <v>39448</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="11">
-        <v>41275</v>
-      </c>
-      <c r="I14" s="11">
-        <v>44196</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="11">
-        <v>41275</v>
-      </c>
-      <c r="I15" s="11">
-        <v>44196</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="11">
-        <v>44739</v>
-      </c>
-      <c r="I16" s="11">
-        <v>45053</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="11">
-        <v>18264</v>
-      </c>
-      <c r="I20" s="11">
-        <v>45107</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="13">
-        <v>23743</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="13"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{790DAE20-6227-4B57-8F8F-19546D9F9F0D}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{42BE2FEF-5EF7-4597-9F5C-80D8E63EB162}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{7806BA56-71DA-440F-BD9A-38F36D78374B}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{B2780D90-BC3A-44E1-9521-6B9701393FDB}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{627B66FB-9861-477A-A970-771BA1A75781}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{3FB952BD-4A62-40A3-9024-633D1B79E0D1}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{CFC7B5A3-10AC-4476-AC17-0B8A3E346960}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{BB27DCF2-D0B7-4494-B31F-38A63EF6EA08}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{75916416-583F-43EB-8D47-B1B90E47B950}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{40BD0B62-3E1D-4B15-8DF1-6395FFE314DA}"/>
-    <hyperlink ref="O21" r:id="rId11" xr:uid="{C4968C96-A17A-4BD7-8D81-BB249747D1A7}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{FEF80EE9-3012-4B55-9A4E-3A7AB82498A0}"/>
-    <hyperlink ref="O22" r:id="rId13" display="https://cdn.knmi.nl/system/data_center_publications/files/000/071/901/original/KNMI23_klimaatscenarios_gebruikersrapport_23-03.pdf" xr:uid="{9BE60F80-59BC-4767-BD3D-411BDD8ED690}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{E50739D5-639D-4BE3-A89C-B10BB88EF94D}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{790DAE20-6227-4B57-8F8F-19546D9F9F0D}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{42BE2FEF-5EF7-4597-9F5C-80D8E63EB162}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{7806BA56-71DA-440F-BD9A-38F36D78374B}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{B2780D90-BC3A-44E1-9521-6B9701393FDB}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{627B66FB-9861-477A-A970-771BA1A75781}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{3FB952BD-4A62-40A3-9024-633D1B79E0D1}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{CFC7B5A3-10AC-4476-AC17-0B8A3E346960}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{BB27DCF2-D0B7-4494-B31F-38A63EF6EA08}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{75916416-583F-43EB-8D47-B1B90E47B950}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{40BD0B62-3E1D-4B15-8DF1-6395FFE314DA}"/>
+    <hyperlink ref="O23" r:id="rId11" xr:uid="{C4968C96-A17A-4BD7-8D81-BB249747D1A7}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{FEF80EE9-3012-4B55-9A4E-3A7AB82498A0}"/>
+    <hyperlink ref="O24" r:id="rId13" display="https://cdn.knmi.nl/system/data_center_publications/files/000/071/901/original/KNMI23_klimaatscenarios_gebruikersrapport_23-03.pdf" xr:uid="{9BE60F80-59BC-4767-BD3D-411BDD8ED690}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{E50739D5-639D-4BE3-A89C-B10BB88EF94D}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{1D53CDA1-2F82-44EF-8848-313E3EF0CABC}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{0978446C-7834-47C6-9A07-910235F6CB02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>